--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1805547680428539</v>
+        <v>-0.1990728830790331</v>
       </c>
       <c r="D2">
-        <v>0.8567388521760522</v>
+        <v>0.8440340933708055</v>
       </c>
       <c r="E2">
         <v>0.5966030876520433</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.5767451909557189</v>
+        <v>0.5199840443020325</v>
       </c>
       <c r="D3">
-        <v>0.5641889123225265</v>
+        <v>0.6082679190106148</v>
       </c>
       <c r="E3">
         <v>0.5966030876520433</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.2666408404907633</v>
+        <v>-0.3250140634376487</v>
       </c>
       <c r="D4">
-        <v>0.7897784500390057</v>
+        <v>0.7482409815123474</v>
       </c>
       <c r="E4">
         <v>0.5966030876520433</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.49646027519956</v>
+        <v>1.530271258711054</v>
       </c>
       <c r="D5">
-        <v>0.1347216963203004</v>
+        <v>0.1402027967931339</v>
       </c>
       <c r="E5">
         <v>0.5966030876520433</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7337106612186293</v>
+        <v>0.7664205132818023</v>
       </c>
       <c r="D6">
-        <v>0.4632275362672558</v>
+        <v>0.4515722526766579</v>
       </c>
       <c r="E6">
         <v>0.6006897354053008</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1210601800842257</v>
+        <v>-0.1455810213335589</v>
       </c>
       <c r="D7">
-        <v>0.9036578543564198</v>
+        <v>0.8855777741370552</v>
       </c>
       <c r="E7">
         <v>0.6006897354053008</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.644106319993699</v>
+        <v>1.696411487473054</v>
       </c>
       <c r="D8">
-        <v>0.100341453529551</v>
+        <v>0.1039140238237213</v>
       </c>
       <c r="E8">
         <v>0.6006897354053008</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.7705762768769729</v>
+        <v>-1.045130898609187</v>
       </c>
       <c r="D9">
-        <v>0.4410665406220331</v>
+        <v>0.3073107159754265</v>
       </c>
       <c r="E9">
         <v>0.5852301763027471</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.138230666930861</v>
+        <v>1.03341455275409</v>
       </c>
       <c r="D10">
-        <v>0.2551865635519697</v>
+        <v>0.3126370607486242</v>
       </c>
       <c r="E10">
         <v>0.5852301763027471</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.405872771515905</v>
+        <v>1.658375114688425</v>
       </c>
       <c r="D11">
-        <v>0.1599469325858927</v>
+        <v>0.1114331761163869</v>
       </c>
       <c r="E11">
         <v>0.6045011528825377</v>
